--- a/raw_data/20200818_saline/20200818_Sensor0_Test_32.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_32.xlsx
@@ -1,885 +1,1301 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA3FE48-5629-4B67-A59F-EEB4EAB4E2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>27902.871538</v>
+        <v>27902.871537999999</v>
       </c>
       <c r="B2" s="1">
-        <v>7.750798</v>
+        <v>7.7507979999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>905.041000</v>
+        <v>905.04100000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.169000</v>
+        <v>-197.16900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>27913.278101</v>
       </c>
       <c r="G2" s="1">
-        <v>7.753688</v>
+        <v>7.7536880000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>921.779000</v>
+        <v>921.779</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.995000</v>
+        <v>-166.995</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>27923.712439</v>
+        <v>27923.712438999999</v>
       </c>
       <c r="L2" s="1">
-        <v>7.756587</v>
+        <v>7.7565869999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>944.589000</v>
+        <v>944.58900000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.918000</v>
+        <v>-119.91800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>27934.529720</v>
+        <v>27934.529719999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.759592</v>
+        <v>7.7595919999999996</v>
       </c>
       <c r="R2" s="1">
-        <v>951.004000</v>
+        <v>951.00400000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.319000</v>
+        <v>-104.319</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>27944.524610</v>
+        <v>27944.52461</v>
       </c>
       <c r="V2" s="1">
-        <v>7.762368</v>
+        <v>7.7623680000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>957.503000</v>
+        <v>957.50300000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.339600</v>
+        <v>-90.339600000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>27954.694543</v>
+        <v>27954.694543000001</v>
       </c>
       <c r="AA2" s="1">
         <v>7.765193</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.608000</v>
+        <v>964.60799999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.586600</v>
+        <v>-80.586600000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>27964.929984</v>
+        <v>27964.929983999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.768036</v>
+        <v>7.7680360000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.590000</v>
+        <v>969.59</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.951800</v>
+        <v>-79.951800000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>27975.377749</v>
+        <v>27975.377748999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.770938</v>
+        <v>7.7709380000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.393000</v>
+        <v>977.39300000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.479600</v>
+        <v>-87.479600000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>27985.629028</v>
+        <v>27985.629027999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.773786</v>
+        <v>7.7737860000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.462000</v>
+        <v>986.46199999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.288000</v>
+        <v>-102.288</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>27996.587181</v>
+        <v>27996.587180999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.776830</v>
+        <v>7.7768300000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.622000</v>
+        <v>997.62199999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.739000</v>
+        <v>-123.739</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>28007.768952</v>
+        <v>28007.768951999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.779936</v>
+        <v>7.7799360000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.452000</v>
+        <v>-142.452</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>28018.694826</v>
+        <v>28018.694825999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.782971</v>
+        <v>7.7829709999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.502000</v>
+        <v>-227.50200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>28029.709514</v>
+        <v>28029.709513999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.786030</v>
+        <v>7.7860300000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1131.100000</v>
+        <v>1131.0999999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.276000</v>
+        <v>-364.27600000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>28041.091179</v>
+        <v>28041.091178999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.789192</v>
+        <v>7.7891919999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.431000</v>
+        <v>-575.43100000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>28052.273484</v>
+        <v>28052.273484000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.792298</v>
+        <v>7.7922979999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.190000</v>
+        <v>1411.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-800.480000</v>
+        <v>-800.48</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>28063.254416</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.795348</v>
+        <v>7.7953479999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.070000</v>
+        <v>1573.07</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>28074.605391</v>
+        <v>28074.605391000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.798501</v>
+        <v>7.7985009999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1982.020000</v>
+        <v>1982.02</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1584.360000</v>
+        <v>-1584.36</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>27903.261891</v>
+        <v>27903.261890999998</v>
       </c>
       <c r="B3" s="1">
-        <v>7.750906</v>
+        <v>7.7509059999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>905.204000</v>
+        <v>905.20399999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.052000</v>
+        <v>-197.05199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>27913.928363</v>
+        <v>27913.928362999999</v>
       </c>
       <c r="G3" s="1">
-        <v>7.753869</v>
+        <v>7.7538689999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>921.838000</v>
+        <v>921.83799999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.274000</v>
+        <v>-167.274</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>27924.404357</v>
+        <v>27924.404356999999</v>
       </c>
       <c r="L3" s="1">
-        <v>7.756779</v>
+        <v>7.7567789999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>944.363000</v>
+        <v>944.36300000000006</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.715000</v>
+        <v>-119.715</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>27934.941863</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.759706</v>
+        <v>7.7597060000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>950.940000</v>
+        <v>950.94</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.345000</v>
+        <v>-104.345</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>27944.871770</v>
+        <v>27944.871770000002</v>
       </c>
       <c r="V3" s="1">
-        <v>7.762464</v>
+        <v>7.7624639999999996</v>
       </c>
       <c r="W3" s="1">
-        <v>957.500000</v>
+        <v>957.5</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.342700</v>
+        <v>-90.342699999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>27955.045213</v>
+        <v>27955.045213000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.765290</v>
+        <v>7.7652900000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.734000</v>
+        <v>964.73400000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.533600</v>
+        <v>-80.533600000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>27965.308075</v>
+        <v>27965.308075000001</v>
       </c>
       <c r="AF3" s="1">
         <v>7.768141</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.578000</v>
+        <v>969.57799999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.929700</v>
+        <v>-79.929699999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>27975.808737</v>
+        <v>27975.808736999999</v>
       </c>
       <c r="AK3" s="1">
         <v>7.771058</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.420000</v>
+        <v>977.42</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.489500</v>
+        <v>-87.489500000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>27986.053636</v>
+        <v>27986.053636000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.773904</v>
+        <v>7.7739039999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.436000</v>
+        <v>986.43600000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.285000</v>
+        <v>-102.285</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>27997.037033</v>
+        <v>27997.037033000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.776955</v>
+        <v>7.7769550000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.645000</v>
+        <v>997.64499999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.770000</v>
+        <v>-123.77</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>28008.155832</v>
@@ -888,88 +1304,88 @@
         <v>7.780043</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.130000</v>
+        <v>1007.13</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.452000</v>
+        <v>-142.452</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>28019.055455</v>
+        <v>28019.055455000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.783071</v>
+        <v>7.7830709999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.491000</v>
+        <v>-227.49100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>28030.092394</v>
+        <v>28030.092393999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.786137</v>
+        <v>7.7861370000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1131.100000</v>
+        <v>1131.0999999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.287000</v>
+        <v>-364.28699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>28041.518767</v>
+        <v>28041.518767000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.789311</v>
+        <v>7.7893109999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.399000</v>
+        <v>-575.399</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>28052.736748</v>
+        <v>28052.736747999999</v>
       </c>
       <c r="BT3" s="1">
         <v>7.792427</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.190000</v>
+        <v>1411.19</v>
       </c>
       <c r="BV3" s="1">
-        <v>-800.508000</v>
+        <v>-800.50800000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>28063.693375</v>
+        <v>28063.693374999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.795470</v>
+        <v>7.7954699999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.020000</v>
+        <v>1573.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1035.180000</v>
+        <v>-1035.18</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>28075.155424</v>
@@ -978,377 +1394,377 @@
         <v>7.798654</v>
       </c>
       <c r="CE3" s="1">
-        <v>1983.540000</v>
+        <v>1983.54</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1583.190000</v>
+        <v>-1583.19</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>27903.913456</v>
+        <v>27903.913455999998</v>
       </c>
       <c r="B4" s="1">
-        <v>7.751087</v>
+        <v>7.7510870000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>904.865000</v>
+        <v>904.86500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.159000</v>
+        <v>-197.15899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>27914.312755</v>
+        <v>27914.312754999999</v>
       </c>
       <c r="G4" s="1">
-        <v>7.753976</v>
+        <v>7.7539759999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>921.987000</v>
+        <v>921.98699999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.215000</v>
+        <v>-167.215</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>27924.787269</v>
       </c>
       <c r="L4" s="1">
-        <v>7.756885</v>
+        <v>7.7568849999999996</v>
       </c>
       <c r="M4" s="1">
-        <v>944.352000</v>
+        <v>944.35199999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.908000</v>
+        <v>-119.908</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>27935.289559</v>
+        <v>27935.289559000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.759803</v>
+        <v>7.7598029999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>950.941000</v>
+        <v>950.94100000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.319000</v>
+        <v>-104.319</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>27945.215498</v>
+        <v>27945.215498000001</v>
       </c>
       <c r="V4" s="1">
-        <v>7.762560</v>
+        <v>7.7625599999999997</v>
       </c>
       <c r="W4" s="1">
-        <v>957.447000</v>
+        <v>957.447</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.303400</v>
+        <v>-90.303399999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>27955.395390</v>
+        <v>27955.395390000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.765388</v>
+        <v>7.7653879999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.704000</v>
+        <v>964.70399999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.565900</v>
+        <v>-80.565899999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>27965.733503</v>
+        <v>27965.733502999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.768259</v>
+        <v>7.7682589999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.585000</v>
+        <v>969.58500000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.969600</v>
+        <v>-79.9696</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>27976.122210</v>
+        <v>27976.122210000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.771145</v>
+        <v>7.7711449999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.414000</v>
+        <v>977.41399999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.493300</v>
+        <v>-87.493300000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>27986.388900</v>
+        <v>27986.388900000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.773997</v>
+        <v>7.7739969999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.445000</v>
+        <v>986.44500000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.292000</v>
+        <v>-102.292</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>27997.418934</v>
+        <v>27997.418934000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.777061</v>
+        <v>7.7770609999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.634000</v>
+        <v>997.63400000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.742000</v>
+        <v>-123.742</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>28008.514440</v>
+        <v>28008.514439999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.780143</v>
+        <v>7.7801429999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.120000</v>
+        <v>1007.12</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.458000</v>
+        <v>-142.458</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>28019.417992</v>
+        <v>28019.417991999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.783172</v>
+        <v>7.7831720000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.890000</v>
+        <v>1051.8900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.519000</v>
+        <v>-227.51900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>28030.841353</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.786345</v>
+        <v>7.7863449999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1131.070000</v>
+        <v>1131.07</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.305000</v>
+        <v>-364.30500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>28041.937354</v>
+        <v>28041.937354000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.789427</v>
+        <v>7.7894269999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.384000</v>
+        <v>-575.38400000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>28053.154379</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.792543</v>
+        <v>7.7925430000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.160000</v>
+        <v>1411.16</v>
       </c>
       <c r="BV4" s="1">
-        <v>-800.611000</v>
+        <v>-800.61099999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>28064.116461</v>
+        <v>28064.116461000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.795588</v>
+        <v>7.7955880000000004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.150000</v>
+        <v>1573.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1035.160000</v>
+        <v>-1035.1600000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>28076.007090</v>
+        <v>28076.007089999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.798891</v>
+        <v>7.7988910000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1982.060000</v>
+        <v>1982.06</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1584.670000</v>
+        <v>-1584.67</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>27904.284144</v>
+        <v>27904.284144000001</v>
       </c>
       <c r="B5" s="1">
-        <v>7.751190</v>
+        <v>7.7511900000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>904.771000</v>
+        <v>904.77099999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.115000</v>
+        <v>-197.11500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>27914.656520</v>
+        <v>27914.65652</v>
       </c>
       <c r="G5" s="1">
-        <v>7.754071</v>
+        <v>7.7540709999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>921.926000</v>
+        <v>921.92600000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.389000</v>
+        <v>-167.38900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>27925.130996</v>
       </c>
       <c r="L5" s="1">
-        <v>7.756981</v>
+        <v>7.7569809999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>944.340000</v>
+        <v>944.34</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.765000</v>
+        <v>-119.765</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>27935.637255</v>
+        <v>27935.637255000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.759899</v>
+        <v>7.7598989999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>950.983000</v>
+        <v>950.98299999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.289000</v>
+        <v>-104.289</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>27945.641066</v>
       </c>
       <c r="V5" s="1">
-        <v>7.762678</v>
+        <v>7.7626780000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>957.472000</v>
+        <v>957.47199999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.323300</v>
+        <v>-90.323300000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>27955.831372</v>
+        <v>27955.831372000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.765509</v>
+        <v>7.7655089999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.552000</v>
+        <v>964.55200000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.684700</v>
+        <v>-80.684700000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>27965.997902</v>
+        <v>27965.997901999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.768333</v>
+        <v>7.7683330000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.586000</v>
+        <v>969.58600000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.962200</v>
+        <v>-79.962199999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>27976.471889</v>
@@ -1357,390 +1773,390 @@
         <v>7.771242</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.405000</v>
+        <v>977.40499999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.491000</v>
+        <v>-87.491</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>27986.748499</v>
+        <v>27986.748499000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.774097</v>
+        <v>7.7740970000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.446000</v>
+        <v>986.44600000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.289000</v>
+        <v>-102.289</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>27997.783493</v>
+        <v>27997.783492999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.777162</v>
+        <v>7.7771619999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.613000</v>
+        <v>997.61300000000006</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.717000</v>
+        <v>-123.717</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>28009.231158</v>
+        <v>28009.231157999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.780342</v>
+        <v>7.7803420000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.120000</v>
+        <v>1007.12</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.475000</v>
+        <v>-142.47499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>28020.142151</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.783373</v>
+        <v>7.7833730000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.519000</v>
+        <v>-227.51900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>28031.215373</v>
+        <v>28031.215372999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.786449</v>
+        <v>7.7864490000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1131.080000</v>
+        <v>1131.08</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.291000</v>
+        <v>-364.291</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>28042.334412</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.789537</v>
+        <v>7.7895370000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.473000</v>
+        <v>-575.47299999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>28053.568541</v>
+        <v>28053.568541000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.792658</v>
+        <v>7.7926580000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.140000</v>
+        <v>1411.14</v>
       </c>
       <c r="BV5" s="1">
-        <v>-800.673000</v>
+        <v>-800.673</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>28064.866908</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.795796</v>
+        <v>7.7957960000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.010000</v>
+        <v>1573.01</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1035.350000</v>
+        <v>-1035.3499999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>28076.234231</v>
+        <v>28076.234230999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.798954</v>
+        <v>7.7989540000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1981.750000</v>
+        <v>1981.75</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1584.640000</v>
+        <v>-1584.64</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>27904.625392</v>
+        <v>27904.625392000002</v>
       </c>
       <c r="B6" s="1">
-        <v>7.751285</v>
+        <v>7.7512850000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>905.049000</v>
+        <v>905.04899999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.070000</v>
+        <v>-197.07</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>27915.003682</v>
+        <v>27915.003681999999</v>
       </c>
       <c r="G6" s="1">
-        <v>7.754168</v>
+        <v>7.7541679999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>921.551000</v>
+        <v>921.55100000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.576000</v>
+        <v>-167.57599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>27925.544164</v>
+        <v>27925.544163999999</v>
       </c>
       <c r="L6" s="1">
-        <v>7.757096</v>
+        <v>7.7570959999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>944.202000</v>
+        <v>944.202</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.847000</v>
+        <v>-119.84699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>27936.058854</v>
+        <v>27936.058853999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.760016</v>
+        <v>7.7600160000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>951.014000</v>
+        <v>951.01400000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.266000</v>
+        <v>-104.26600000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>27945.930233</v>
+        <v>27945.930232999999</v>
       </c>
       <c r="V6" s="1">
-        <v>7.762758</v>
+        <v>7.7627579999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>957.458000</v>
+        <v>957.45799999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.372200</v>
+        <v>-90.372200000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>27956.110620</v>
+        <v>27956.110619999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.765586</v>
+        <v>7.7655859999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.557000</v>
+        <v>964.55700000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.672900</v>
+        <v>-80.672899999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>27966.342095</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.768428</v>
+        <v>7.7684280000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.545000</v>
+        <v>969.54499999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.972500</v>
+        <v>-79.972499999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>27976.819584</v>
+        <v>27976.819584000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.771339</v>
+        <v>7.7713390000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.414000</v>
+        <v>977.41399999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.492000</v>
+        <v>-87.492000000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>27987.109125</v>
+        <v>27987.109124999999</v>
       </c>
       <c r="AP6" s="1">
         <v>7.774197</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.458000</v>
+        <v>986.45799999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.280000</v>
+        <v>-102.28</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>27998.512643</v>
+        <v>27998.512642999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.777365</v>
+        <v>7.7773649999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.644000</v>
+        <v>997.64400000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.736000</v>
+        <v>-123.736</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>28009.590261</v>
+        <v>28009.590261000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.780442</v>
+        <v>7.7804419999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.437000</v>
+        <v>-142.43700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>28020.532007</v>
+        <v>28020.532007000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.783481</v>
+        <v>7.7834810000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.476000</v>
+        <v>-227.476</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>28031.591305</v>
+        <v>28031.591305000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.786553</v>
+        <v>7.7865529999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1131.080000</v>
+        <v>1131.08</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.276000</v>
+        <v>-364.27600000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>28043.068729</v>
+        <v>28043.068728999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.789741</v>
+        <v>7.7897410000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.467000</v>
+        <v>-575.46699999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>28054.298185</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.792861</v>
+        <v>7.7928610000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.140000</v>
+        <v>1411.14</v>
       </c>
       <c r="BV6" s="1">
-        <v>-800.762000</v>
+        <v>-800.76199999999994</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>28064.985453</v>
+        <v>28064.985453000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.795829</v>
+        <v>7.7958290000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.060000</v>
+        <v>1573.06</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1035.300000</v>
+        <v>-1035.3</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>28076.756049</v>
@@ -1749,1103 +2165,1103 @@
         <v>7.799099</v>
       </c>
       <c r="CE6" s="1">
-        <v>1983.270000</v>
+        <v>1983.27</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1584.050000</v>
+        <v>-1584.05</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>27904.969119</v>
+        <v>27904.969119000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.751380</v>
+        <v>7.7513800000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>905.036000</v>
+        <v>905.03599999999994</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.180000</v>
+        <v>-197.18</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>27915.430737</v>
+        <v>27915.430736999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.754286</v>
+        <v>7.7542859999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>921.787000</v>
+        <v>921.78700000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.048000</v>
+        <v>-167.048</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>27925.824404</v>
+        <v>27925.824403999999</v>
       </c>
       <c r="L7" s="1">
-        <v>7.757173</v>
+        <v>7.7571729999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>944.484000</v>
+        <v>944.48400000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.848000</v>
+        <v>-119.848</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>27936.335125</v>
+        <v>27936.335125000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.760093</v>
+        <v>7.7600930000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>951.006000</v>
+        <v>951.00599999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.276000</v>
+        <v>-104.276</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>27946.273466</v>
+        <v>27946.273465999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.762854</v>
+        <v>7.7628539999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>957.453000</v>
+        <v>957.45299999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.339300</v>
+        <v>-90.339299999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>27956.460299</v>
+        <v>27956.460298999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.765683</v>
+        <v>7.7656830000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.740000</v>
+        <v>964.74</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.572500</v>
+        <v>-80.572500000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>27966.683343</v>
+        <v>27966.683343000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.768523</v>
+        <v>7.7685230000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.599000</v>
+        <v>969.59900000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.969200</v>
+        <v>-79.969200000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>27977.517951</v>
+        <v>27977.517951000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.771533</v>
+        <v>7.7715329999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.422000</v>
+        <v>977.42200000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.516600</v>
+        <v>-87.516599999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>27987.827330</v>
+        <v>27987.82733</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.774396</v>
+        <v>7.7743960000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.426000</v>
+        <v>986.42600000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.286000</v>
+        <v>-102.286</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>27998.904992</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.777474</v>
+        <v>7.7774739999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.643000</v>
+        <v>997.64300000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.741000</v>
+        <v>-123.741</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>28009.950852</v>
+        <v>28009.950852000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.780542</v>
+        <v>7.7805419999999996</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.460000</v>
+        <v>-142.46</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>28020.887143</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.783580</v>
+        <v>7.7835799999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.516000</v>
+        <v>-227.51599999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>28032.285490</v>
+        <v>28032.285489999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.786746</v>
+        <v>7.7867459999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1131.070000</v>
+        <v>1131.07</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.289000</v>
+        <v>-364.28899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>28043.183305</v>
+        <v>28043.183304999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.789773</v>
+        <v>7.7897730000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.480000</v>
+        <v>-575.48</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>28054.413258</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.792893</v>
+        <v>7.7928930000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.070000</v>
+        <v>1411.07</v>
       </c>
       <c r="BV7" s="1">
-        <v>-800.831000</v>
+        <v>-800.83100000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>28065.425403</v>
+        <v>28065.425403000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.795952</v>
+        <v>7.7959519999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.110000</v>
+        <v>1573.11</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1035.280000</v>
+        <v>-1035.28</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>28077.272387</v>
+        <v>28077.272387000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.799242</v>
+        <v>7.7992419999999996</v>
       </c>
       <c r="CE7" s="1">
-        <v>1983.080000</v>
+        <v>1983.08</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1584.370000</v>
+        <v>-1584.37</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>27905.392704</v>
+        <v>27905.392704000002</v>
       </c>
       <c r="B8" s="1">
-        <v>7.751498</v>
+        <v>7.7514979999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>904.885000</v>
+        <v>904.88499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.151000</v>
+        <v>-197.15100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>27915.708994</v>
+        <v>27915.708994000001</v>
       </c>
       <c r="G8" s="1">
-        <v>7.754364</v>
+        <v>7.7543639999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>921.839000</v>
+        <v>921.83900000000006</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.266000</v>
+        <v>-167.26599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>27926.170115</v>
+        <v>27926.170115000001</v>
       </c>
       <c r="L8" s="1">
         <v>7.757269</v>
       </c>
       <c r="M8" s="1">
-        <v>944.257000</v>
+        <v>944.25699999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.632000</v>
+        <v>-119.63200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>27936.683813</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.760190</v>
+        <v>7.7601899999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>950.993000</v>
+        <v>950.99300000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.312000</v>
+        <v>-104.312</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>27946.618184</v>
+        <v>27946.618183999999</v>
       </c>
       <c r="V8" s="1">
-        <v>7.762949</v>
+        <v>7.7629489999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>957.492000</v>
+        <v>957.49199999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.279700</v>
+        <v>-90.279700000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>27956.807995</v>
+        <v>27956.807994999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.765780</v>
+        <v>7.7657800000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.702000</v>
+        <v>964.702</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.549400</v>
+        <v>-80.549400000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>27967.371821</v>
+        <v>27967.371821000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.768714</v>
+        <v>7.7687140000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.569000</v>
+        <v>969.56899999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.985500</v>
+        <v>-79.985500000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>27977.865152</v>
+        <v>27977.865151999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.771629</v>
+        <v>7.7716289999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.421000</v>
+        <v>977.42100000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.494600</v>
+        <v>-87.494600000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>27988.189875</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.774497</v>
+        <v>7.7744970000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.437000</v>
+        <v>986.43700000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.294000</v>
+        <v>-102.294</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>27999.270499</v>
+        <v>27999.270498999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.777575</v>
+        <v>7.7775749999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.639000</v>
+        <v>997.63900000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.732000</v>
+        <v>-123.732</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>28010.613509</v>
+        <v>28010.613508999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.780726</v>
+        <v>7.7807259999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.110000</v>
+        <v>1007.11</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.440000</v>
+        <v>-142.44</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>28021.569637</v>
+        <v>28021.569637000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.783769</v>
+        <v>7.7837690000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.508000</v>
+        <v>-227.50800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>28032.716758</v>
+        <v>28032.716757999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.786866</v>
+        <v>7.7868659999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1131.070000</v>
+        <v>1131.07</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.286000</v>
+        <v>-364.286</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>28043.575640</v>
+        <v>28043.575639999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.789882</v>
+        <v>7.7898820000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.384000</v>
+        <v>-575.38400000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>28054.826407</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.793007</v>
+        <v>7.7930070000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.990000</v>
+        <v>1410.99</v>
       </c>
       <c r="BV8" s="1">
-        <v>-800.935000</v>
+        <v>-800.93499999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>28065.882714</v>
+        <v>28065.882713999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.796079</v>
+        <v>7.7960789999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.020000</v>
+        <v>1573.02</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1035.290000</v>
+        <v>-1035.29</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>28077.824423</v>
+        <v>28077.824422999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.799396</v>
+        <v>7.7993959999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1981.690000</v>
+        <v>1981.69</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1584.340000</v>
+        <v>-1584.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>27905.663518</v>
+        <v>27905.663518000001</v>
       </c>
       <c r="B9" s="1">
-        <v>7.751573</v>
+        <v>7.7515729999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>904.854000</v>
+        <v>904.85400000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.182000</v>
+        <v>-197.18199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>27916.052224</v>
+        <v>27916.052223999999</v>
       </c>
       <c r="G9" s="1">
-        <v>7.754459</v>
+        <v>7.7544589999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>922.008000</v>
+        <v>922.00800000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.335000</v>
+        <v>-167.33500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>27926.513844</v>
+        <v>27926.513844000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.757365</v>
+        <v>7.7573650000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>944.492000</v>
+        <v>944.49199999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.691000</v>
+        <v>-119.691</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>27937.034981</v>
+        <v>27937.034981000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.760287</v>
+        <v>7.7602869999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>950.941000</v>
+        <v>950.94100000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.326000</v>
+        <v>-104.32599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>27947.305639</v>
+        <v>27947.305638999998</v>
       </c>
       <c r="V9" s="1">
-        <v>7.763140</v>
+        <v>7.7631399999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>957.499000</v>
+        <v>957.49900000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.373100</v>
+        <v>-90.373099999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>27957.507850</v>
+        <v>27957.507850000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.765974</v>
+        <v>7.7659739999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.702000</v>
+        <v>964.702</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.576000</v>
+        <v>-80.575999999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>27967.722492</v>
+        <v>27967.722492000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.768812</v>
+        <v>7.7688119999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.620000</v>
+        <v>969.62</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.943600</v>
+        <v>-79.943600000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>27978.212350</v>
+        <v>27978.212350000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.771726</v>
+        <v>7.7717260000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.410000</v>
+        <v>977.41</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.486600</v>
+        <v>-87.486599999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>27988.548977</v>
+        <v>27988.548976999999</v>
       </c>
       <c r="AP9" s="1">
         <v>7.774597</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.452000</v>
+        <v>986.452</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.290000</v>
+        <v>-102.29</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>27999.944066</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.777762</v>
+        <v>7.7777620000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.647000</v>
+        <v>997.64700000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.733000</v>
+        <v>-123.733</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>28011.050483</v>
+        <v>28011.050482999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.780847</v>
+        <v>7.7808469999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.080000</v>
+        <v>1007.08</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.452000</v>
+        <v>-142.452</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>28022.002985</v>
+        <v>28022.002984999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.783890</v>
+        <v>7.7838900000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.505000</v>
+        <v>-227.505</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>28033.096166</v>
+        <v>28033.096165999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.786971</v>
+        <v>7.7869710000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1131.060000</v>
+        <v>1131.06</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.290000</v>
+        <v>-364.29</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>28043.998231</v>
+        <v>28043.998231000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.790000</v>
+        <v>7.79</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.435000</v>
+        <v>-575.43499999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>28055.256426</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.793127</v>
+        <v>7.7931270000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.890000</v>
+        <v>1410.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-800.874000</v>
+        <v>-800.87400000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>28066.332294</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.796203</v>
+        <v>7.7962030000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1572.910000</v>
+        <v>1572.91</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1035.280000</v>
+        <v>-1035.28</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>28078.352634</v>
+        <v>28078.352633999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.799542</v>
+        <v>7.7995419999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1983.440000</v>
+        <v>1983.44</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1584.160000</v>
+        <v>-1584.16</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>27906.005758</v>
+        <v>27906.005757999999</v>
       </c>
       <c r="B10" s="1">
-        <v>7.751668</v>
+        <v>7.7516679999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>904.646000</v>
+        <v>904.64599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.883000</v>
+        <v>-196.88300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>27916.397473</v>
+        <v>27916.397473000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7.754555</v>
+        <v>7.7545549999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>922.119000</v>
+        <v>922.11900000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.492000</v>
+        <v>-167.49199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>27927.206259</v>
+        <v>27927.206258999999</v>
       </c>
       <c r="L10" s="1">
-        <v>7.757557</v>
+        <v>7.7575570000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>944.321000</v>
+        <v>944.32100000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.878000</v>
+        <v>-119.878</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>27937.727892</v>
+        <v>27937.727891999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.760480</v>
+        <v>7.7604800000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>950.961000</v>
+        <v>950.96100000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.293000</v>
+        <v>-104.29300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>27947.647384</v>
       </c>
       <c r="V10" s="1">
-        <v>7.763235</v>
+        <v>7.7632349999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>957.385000</v>
+        <v>957.38499999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.315500</v>
+        <v>-90.3155</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>27957.865466</v>
+        <v>27957.865465999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.766074</v>
+        <v>7.7660739999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.667000</v>
+        <v>964.66700000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.554500</v>
+        <v>-80.554500000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>27968.066715</v>
+        <v>27968.066715000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.768907</v>
+        <v>7.7689069999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.602000</v>
+        <v>969.60199999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.953100</v>
+        <v>-79.953100000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>27978.877522</v>
+        <v>27978.877521999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.771910</v>
+        <v>7.7719100000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.412000</v>
+        <v>977.41200000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.491600</v>
+        <v>-87.491600000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>27989.226016</v>
+        <v>27989.226016000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.774785</v>
+        <v>7.7747849999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.439000</v>
+        <v>986.43899999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.298000</v>
+        <v>-102.298</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>28000.397905</v>
+        <v>28000.397905000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.777888</v>
+        <v>7.7778879999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.630000</v>
+        <v>997.63</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.733000</v>
+        <v>-123.733</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>28011.409619</v>
+        <v>28011.409618999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.780947</v>
+        <v>7.7809470000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.110000</v>
+        <v>1007.11</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.455000</v>
+        <v>-142.45500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>28022.362244</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.783990</v>
+        <v>7.7839900000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.507000</v>
+        <v>-227.50700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>28033.469653</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.787075</v>
+        <v>7.7870749999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1131.070000</v>
+        <v>1131.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.296000</v>
+        <v>-364.29599999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>28044.428296</v>
+        <v>28044.428295999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.790119</v>
+        <v>7.7901189999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.402000</v>
+        <v>-575.40200000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>28055.678060</v>
+        <v>28055.678059999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.793244</v>
+        <v>7.7932439999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.880000</v>
+        <v>1410.88</v>
       </c>
       <c r="BV10" s="1">
-        <v>-800.977000</v>
+        <v>-800.97699999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>28066.789402</v>
+        <v>28066.789401999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.796330</v>
+        <v>7.7963300000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1572.940000</v>
+        <v>1572.94</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1035.250000</v>
+        <v>-1035.25</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>28078.873962</v>
+        <v>28078.873962000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.799687</v>
+        <v>7.7996869999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1982.120000</v>
+        <v>1982.12</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1582.460000</v>
+        <v>-1582.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>27906.348495</v>
+        <v>27906.348494999998</v>
       </c>
       <c r="B11" s="1">
-        <v>7.751763</v>
+        <v>7.7517630000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>904.844000</v>
+        <v>904.84400000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.992000</v>
+        <v>-196.99199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>27917.086415</v>
+        <v>27917.086415000002</v>
       </c>
       <c r="G11" s="1">
-        <v>7.754746</v>
+        <v>7.7547459999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>922.140000</v>
+        <v>922.14</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.181000</v>
+        <v>-167.18100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>27927.551970</v>
+        <v>27927.55197</v>
       </c>
       <c r="L11" s="1">
-        <v>7.757653</v>
+        <v>7.7576530000000004</v>
       </c>
       <c r="M11" s="1">
-        <v>944.286000</v>
+        <v>944.28599999999994</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.621000</v>
+        <v>-119.621</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>27938.080587</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.760578</v>
+        <v>7.7605779999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>950.966000</v>
+        <v>950.96600000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.247000</v>
+        <v>-104.247</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>27947.992102</v>
@@ -2854,210 +3270,210 @@
         <v>7.763331</v>
       </c>
       <c r="W11" s="1">
-        <v>957.478000</v>
+        <v>957.47799999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.340900</v>
+        <v>-90.340900000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>27958.523160</v>
+        <v>27958.523160000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.766256</v>
+        <v>7.7662560000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.666000</v>
+        <v>964.66600000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.559200</v>
+        <v>-80.559200000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>27968.722395</v>
+        <v>27968.722395000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.769090</v>
+        <v>7.7690900000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.572000</v>
+        <v>969.572</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.959800</v>
+        <v>-79.959800000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>27979.263905</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.772018</v>
+        <v>7.7720180000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.397000</v>
+        <v>977.39700000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.504700</v>
+        <v>-87.5047</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>27989.662992</v>
+        <v>27989.662992000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.774906</v>
+        <v>7.7749059999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.441000</v>
+        <v>986.44100000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.295000</v>
+        <v>-102.295</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>28000.758496</v>
+        <v>28000.758495999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.777988</v>
+        <v>7.7779879999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.645000</v>
+        <v>997.64499999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.749000</v>
+        <v>-123.749</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>28011.769682</v>
+        <v>28011.769681999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>7.781047</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.110000</v>
+        <v>1007.11</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.457000</v>
+        <v>-142.45699999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>28022.726309</v>
+        <v>28022.726309000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.784091</v>
+        <v>7.7840910000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.478000</v>
+        <v>-227.47800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>28033.891750</v>
+        <v>28033.891749999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.787192</v>
+        <v>7.7871920000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1131.070000</v>
+        <v>1131.07</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.305000</v>
+        <v>-364.30500000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>28044.817623</v>
+        <v>28044.817622999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.790227</v>
+        <v>7.7902269999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.453000</v>
+        <v>-575.45299999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>28056.085737</v>
+        <v>28056.085737000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.793357</v>
+        <v>7.7933570000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.700000</v>
+        <v>1410.7</v>
       </c>
       <c r="BV11" s="1">
-        <v>-800.887000</v>
+        <v>-800.88699999999994</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>28067.236824</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.796455</v>
+        <v>7.7964549999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1572.990000</v>
+        <v>1572.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1035.360000</v>
+        <v>-1035.3599999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>28079.412088</v>
+        <v>28079.412088000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.799837</v>
+        <v>7.7998370000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1982.090000</v>
+        <v>1982.09</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1584.900000</v>
+        <v>-1584.9</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>27907.030999</v>
+        <v>27907.030998999999</v>
       </c>
       <c r="B12" s="1">
-        <v>7.751953</v>
+        <v>7.7519530000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>904.948000</v>
+        <v>904.94799999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.061000</v>
+        <v>-197.06100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>27917.431599</v>
@@ -3066,737 +3482,737 @@
         <v>7.754842</v>
       </c>
       <c r="H12" s="1">
-        <v>921.931000</v>
+        <v>921.93100000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.579000</v>
+        <v>-167.57900000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>27927.898178</v>
+        <v>27927.898177999999</v>
       </c>
       <c r="L12" s="1">
-        <v>7.757749</v>
+        <v>7.7577489999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>944.285000</v>
+        <v>944.28499999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.801000</v>
+        <v>-119.801</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>27938.425763</v>
+        <v>27938.425762999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.760674</v>
+        <v>7.7606739999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>950.987000</v>
+        <v>950.98699999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.293000</v>
+        <v>-104.29300000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>27948.645831</v>
+        <v>27948.645831000002</v>
       </c>
       <c r="V12" s="1">
-        <v>7.763513</v>
+        <v>7.7635129999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>957.445000</v>
+        <v>957.44500000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.344800</v>
+        <v>-90.344800000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>27958.910536</v>
+        <v>27958.910535999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.766364</v>
+        <v>7.7663640000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.698000</v>
+        <v>964.69799999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.472300</v>
+        <v>-80.472300000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>27969.096876</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.769194</v>
+        <v>7.7691939999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.565000</v>
+        <v>969.56500000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.912900</v>
+        <v>-79.912899999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>27979.606864</v>
+        <v>27979.606864000001</v>
       </c>
       <c r="AK12" s="1">
         <v>7.772113</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.409000</v>
+        <v>977.40899999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.516200</v>
+        <v>-87.516199999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>27990.054831</v>
+        <v>27990.054831000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.775015</v>
+        <v>7.7750149999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.437000</v>
+        <v>986.43700000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.284000</v>
+        <v>-102.28400000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>28001.125536</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.778090</v>
+        <v>7.7780899999999997</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.633000</v>
+        <v>997.63300000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.741000</v>
+        <v>-123.741</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>28012.189794</v>
+        <v>28012.189794000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.781164</v>
+        <v>7.7811640000000004</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.080000</v>
+        <v>1007.08</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.434000</v>
+        <v>-142.434</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>28023.156339</v>
+        <v>28023.156339000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.784210</v>
+        <v>7.7842099999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.504000</v>
+        <v>-227.50399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>28034.241956</v>
+        <v>28034.241956000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.787289</v>
+        <v>7.7872890000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1131.060000</v>
+        <v>1131.06</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.264000</v>
+        <v>-364.26400000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>28045.215415</v>
+        <v>28045.215414999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.790338</v>
+        <v>7.7903380000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.452000</v>
+        <v>-575.452</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>28056.498407</v>
+        <v>28056.498406999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.793472</v>
+        <v>7.7934720000000004</v>
       </c>
       <c r="BU12" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="BV12" s="1">
-        <v>-800.928000</v>
+        <v>-800.928</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>28067.692616</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.796581</v>
+        <v>7.7965809999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.060000</v>
+        <v>1573.06</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>28079.951266</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.799986</v>
+        <v>7.7999859999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1983.420000</v>
+        <v>1983.42</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1583.120000</v>
+        <v>-1583.12</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>27907.376700</v>
+        <v>27907.376700000001</v>
       </c>
       <c r="B13" s="1">
-        <v>7.752049</v>
+        <v>7.7520490000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>904.736000</v>
+        <v>904.73599999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.119000</v>
+        <v>-197.119</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>27917.782270</v>
+        <v>27917.78227</v>
       </c>
       <c r="G13" s="1">
-        <v>7.754940</v>
+        <v>7.7549400000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>921.856000</v>
+        <v>921.85599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.163000</v>
+        <v>-167.16300000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>27928.548960</v>
+        <v>27928.54896</v>
       </c>
       <c r="L13" s="1">
-        <v>7.757930</v>
+        <v>7.75793</v>
       </c>
       <c r="M13" s="1">
-        <v>944.473000</v>
+        <v>944.47299999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.576000</v>
+        <v>-119.57599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>27939.085938</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.760857</v>
+        <v>7.7608569999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>950.989000</v>
+        <v>950.98900000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.343000</v>
+        <v>-104.343</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>27949.029238</v>
+        <v>27949.029237999999</v>
       </c>
       <c r="V13" s="1">
-        <v>7.763619</v>
+        <v>7.7636190000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>957.459000</v>
+        <v>957.45899999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.356700</v>
+        <v>-90.356700000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>27959.258445</v>
+        <v>27959.258444999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.766461</v>
+        <v>7.7664609999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.655000</v>
+        <v>964.65499999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.523400</v>
+        <v>-80.523399999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>27969.440602</v>
+        <v>27969.440601999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.769289</v>
+        <v>7.7692889999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.632000</v>
+        <v>969.63199999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.928600</v>
+        <v>-79.928600000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>27979.960780</v>
+        <v>27979.960780000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.772211</v>
+        <v>7.7722110000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.386000</v>
+        <v>977.38599999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.475900</v>
+        <v>-87.475899999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>27990.382190</v>
+        <v>27990.38219</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.775106</v>
+        <v>7.7751060000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.450000</v>
+        <v>986.45</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.296000</v>
+        <v>-102.29600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>28001.553585</v>
+        <v>28001.553585000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.778209</v>
+        <v>7.7782090000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.638000</v>
+        <v>997.63800000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.747000</v>
+        <v>-123.747</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>28012.487889</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.781247</v>
+        <v>7.7812469999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.080000</v>
+        <v>1007.08</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.438000</v>
+        <v>-142.43799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>28023.445548</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.784290</v>
+        <v>7.7842900000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.890000</v>
+        <v>1051.8900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.486000</v>
+        <v>-227.48599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>28034.620899</v>
+        <v>28034.620899000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.787395</v>
+        <v>7.7873950000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1131.070000</v>
+        <v>1131.07</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.271000</v>
+        <v>-364.27100000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>28045.636549</v>
+        <v>28045.636548999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.790455</v>
+        <v>7.7904549999999997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.447000</v>
+        <v>-575.447</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>28057.230503</v>
+        <v>28057.230502999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.793675</v>
+        <v>7.7936750000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>1410.580000</v>
+        <v>1410.58</v>
       </c>
       <c r="BV13" s="1">
-        <v>-800.888000</v>
+        <v>-800.88800000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>28068.140039</v>
+        <v>28068.140039000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.796706</v>
+        <v>7.7967060000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.280000</v>
+        <v>1573.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1035.540000</v>
+        <v>-1035.54</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>28080.491880</v>
+        <v>28080.491880000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.800137</v>
+        <v>7.8001370000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>1981.640000</v>
+        <v>1981.64</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1583.320000</v>
+        <v>-1583.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>27907.716956</v>
       </c>
       <c r="B14" s="1">
-        <v>7.752144</v>
+        <v>7.7521440000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>904.844000</v>
+        <v>904.84400000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.172000</v>
+        <v>-197.172</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>27918.435997</v>
       </c>
       <c r="G14" s="1">
-        <v>7.755121</v>
+        <v>7.7551209999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>921.850000</v>
+        <v>921.85</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.389000</v>
+        <v>-167.38900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>27928.935311</v>
+        <v>27928.935311000001</v>
       </c>
       <c r="L14" s="1">
         <v>7.758038</v>
       </c>
       <c r="M14" s="1">
-        <v>944.348000</v>
+        <v>944.34799999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.884000</v>
+        <v>-119.884</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>27939.473843</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.760965</v>
+        <v>7.7609649999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>950.953000</v>
+        <v>950.95299999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.308000</v>
+        <v>-104.30800000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>27949.377924</v>
       </c>
       <c r="V14" s="1">
-        <v>7.763716</v>
+        <v>7.7637159999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>957.388000</v>
+        <v>957.38800000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.397900</v>
+        <v>-90.397900000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>27959.609399</v>
+        <v>27959.609399000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.766558</v>
+        <v>7.7665579999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.687000</v>
+        <v>964.68700000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.523500</v>
+        <v>-80.523499999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>27969.785354</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.769385</v>
+        <v>7.7693849999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.578000</v>
+        <v>969.57799999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.955100</v>
+        <v>-79.955100000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>27980.399234</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.772333</v>
+        <v>7.7723329999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.383000</v>
+        <v>977.38300000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.483000</v>
+        <v>-87.483000000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>27990.874222</v>
+        <v>27990.874221999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.775243</v>
+        <v>7.7752429999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.429000</v>
+        <v>986.42899999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.274000</v>
+        <v>-102.274</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>28001.852708</v>
+        <v>28001.852707999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.778292</v>
+        <v>7.7782920000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.630000</v>
+        <v>997.63</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.726000</v>
+        <v>-123.726</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>28012.846992</v>
+        <v>28012.846991999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.781346</v>
+        <v>7.7813460000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.080000</v>
+        <v>1007.08</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.454000</v>
+        <v>-142.45400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>28023.803656</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.784390</v>
+        <v>7.7843900000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.850000</v>
+        <v>1051.8499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.499000</v>
+        <v>-227.499</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>28034.993363</v>
+        <v>28034.993363000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.787498</v>
+        <v>7.7874980000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1131.070000</v>
+        <v>1131.07</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.280000</v>
+        <v>-364.28</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>28046.453429</v>
+        <v>28046.453429000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.790682</v>
+        <v>7.7906820000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.431000</v>
+        <v>-575.43100000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>28057.351526</v>
+        <v>28057.351525999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.793709</v>
+        <v>7.7937089999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="BV14" s="1">
-        <v>-800.896000</v>
+        <v>-800.89599999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>28068.850775</v>
+        <v>28068.850774999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.796903</v>
+        <v>7.7969030000000004</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.150000</v>
+        <v>1573.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1035.180000</v>
+        <v>-1035.18</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>28081.032055</v>
@@ -3805,165 +4221,165 @@
         <v>7.800287</v>
       </c>
       <c r="CE14" s="1">
-        <v>1982.690000</v>
+        <v>1982.69</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1584.630000</v>
+        <v>-1584.63</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>27908.430204</v>
       </c>
       <c r="B15" s="1">
-        <v>7.752342</v>
+        <v>7.7523419999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>904.759000</v>
+        <v>904.75900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.043000</v>
+        <v>-197.04300000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>27918.814940</v>
+        <v>27918.81494</v>
       </c>
       <c r="G15" s="1">
-        <v>7.755226</v>
+        <v>7.7552260000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>921.919000</v>
+        <v>921.91899999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.163000</v>
+        <v>-167.16300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>27929.283503</v>
+        <v>27929.283502999999</v>
       </c>
       <c r="L15" s="1">
-        <v>7.758134</v>
+        <v>7.7581340000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>944.368000</v>
+        <v>944.36800000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.733000</v>
+        <v>-119.733</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>27939.820049</v>
+        <v>27939.820049000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.761061</v>
+        <v>7.7610609999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>950.957000</v>
+        <v>950.95699999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.296000</v>
+        <v>-104.29600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>27949.722148</v>
+        <v>27949.722148000001</v>
       </c>
       <c r="V15" s="1">
-        <v>7.763812</v>
+        <v>7.7638119999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>957.494000</v>
+        <v>957.49400000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.359600</v>
+        <v>-90.3596</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>27960.023559</v>
+        <v>27960.023559000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.766673</v>
+        <v>7.7666729999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.697000</v>
+        <v>964.697</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.542300</v>
+        <v>-80.542299999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>27970.207684</v>
+        <v>27970.207684000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.769502</v>
+        <v>7.7695020000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.563000</v>
+        <v>969.56299999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.904800</v>
+        <v>-79.904799999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>27980.664603</v>
+        <v>27980.664603000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.772407</v>
+        <v>7.7724070000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.407000</v>
+        <v>977.40700000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.487900</v>
+        <v>-87.487899999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>27991.105853</v>
+        <v>27991.105853000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.775307</v>
+        <v>7.7753069999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.431000</v>
+        <v>986.43100000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.293000</v>
+        <v>-102.29300000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>28002.221481</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.778395</v>
+        <v>7.7783949999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.635000</v>
+        <v>997.63499999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.737000</v>
+        <v>-123.73699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>28013.207584</v>
@@ -3972,799 +4388,799 @@
         <v>7.781447</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.120000</v>
+        <v>1007.12</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.442000</v>
+        <v>-142.44200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>28024.441011</v>
+        <v>28024.441010999999</v>
       </c>
       <c r="BE15" s="1">
         <v>7.784567</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.470000</v>
+        <v>-227.47</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>28035.742324</v>
+        <v>28035.742323999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>7.787706</v>
       </c>
       <c r="BK15" s="1">
-        <v>1131.060000</v>
+        <v>1131.06</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.313000</v>
+        <v>-364.31299999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>28046.871094</v>
+        <v>28046.871093999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.790798</v>
+        <v>7.7907979999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.397000</v>
+        <v>-575.39700000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>28057.771178</v>
+        <v>28057.771177999999</v>
       </c>
       <c r="BT15" s="1">
         <v>7.793825</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.450000</v>
+        <v>1410.45</v>
       </c>
       <c r="BV15" s="1">
-        <v>-800.781000</v>
+        <v>-800.78099999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>28069.357190</v>
+        <v>28069.357189999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.797044</v>
+        <v>7.7970439999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1572.900000</v>
+        <v>1572.9</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1035.360000</v>
+        <v>-1035.3599999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>28081.881023</v>
+        <v>28081.881023000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.800523</v>
+        <v>7.8005230000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1981.310000</v>
+        <v>1981.31</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1583.670000</v>
+        <v>-1583.67</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>27908.743178</v>
+        <v>27908.743178000001</v>
       </c>
       <c r="B16" s="1">
-        <v>7.752429</v>
+        <v>7.7524290000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>904.882000</v>
+        <v>904.88199999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.157000</v>
+        <v>-197.15700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>27919.160156</v>
+        <v>27919.160156000002</v>
       </c>
       <c r="G16" s="1">
-        <v>7.755322</v>
+        <v>7.7553219999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>921.609000</v>
+        <v>921.60900000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.683000</v>
+        <v>-166.68299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>27929.627847</v>
       </c>
       <c r="L16" s="1">
-        <v>7.758230</v>
+        <v>7.7582300000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>944.453000</v>
+        <v>944.45299999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.839000</v>
+        <v>-119.839</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>27940.171221</v>
+        <v>27940.171221000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.761159</v>
+        <v>7.7611590000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>950.970000</v>
+        <v>950.97</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.293000</v>
+        <v>-104.29300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>27950.138323</v>
+        <v>27950.138322999999</v>
       </c>
       <c r="V16" s="1">
-        <v>7.763927</v>
+        <v>7.7639269999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>957.446000</v>
+        <v>957.44600000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.375400</v>
+        <v>-90.375399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>27960.315207</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.766754</v>
+        <v>7.7667539999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.647000</v>
+        <v>964.64700000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.554800</v>
+        <v>-80.5548</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>27970.500554</v>
+        <v>27970.500553999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.769583</v>
+        <v>7.7695829999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.592000</v>
+        <v>969.59199999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.934700</v>
+        <v>-79.934700000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>27981.015243</v>
+        <v>27981.015243000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.772504</v>
+        <v>7.7725039999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.396000</v>
+        <v>977.39599999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.507700</v>
+        <v>-87.5077</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>27991.462508</v>
+        <v>27991.462508000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.775406</v>
+        <v>7.7754060000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.433000</v>
+        <v>986.43299999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.281000</v>
+        <v>-102.28100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>28002.584766</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.778496</v>
+        <v>7.7784959999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.637000</v>
+        <v>997.63699999999994</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.737000</v>
+        <v>-123.73699999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>28013.923311</v>
+        <v>28013.923310999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.781645</v>
+        <v>7.7816450000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.090000</v>
+        <v>1007.09</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.431000</v>
+        <v>-142.43100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>28024.889360</v>
+        <v>28024.889360000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.784691</v>
+        <v>7.7846909999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.850000</v>
+        <v>1051.8499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.482000</v>
+        <v>-227.482</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>28036.121302</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.787811</v>
+        <v>7.7878109999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1131.020000</v>
+        <v>1131.02</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.286000</v>
+        <v>-364.286</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>28047.268355</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.790908</v>
+        <v>7.7909079999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.740000</v>
+        <v>1262.74</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.429000</v>
+        <v>-575.42899999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>28058.493355</v>
+        <v>28058.493354999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.794026</v>
+        <v>7.7940259999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1410.450000</v>
+        <v>1410.45</v>
       </c>
       <c r="BV16" s="1">
-        <v>-800.706000</v>
+        <v>-800.70600000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>28070.101717</v>
+        <v>28070.101717000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.797250</v>
+        <v>7.79725</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1572.830000</v>
+        <v>1572.83</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1035.280000</v>
+        <v>-1035.28</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>28082.110832</v>
+        <v>28082.110831999998</v>
       </c>
       <c r="CD16" s="1">
         <v>7.800586</v>
       </c>
       <c r="CE16" s="1">
-        <v>1981.510000</v>
+        <v>1981.51</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1583.610000</v>
+        <v>-1583.61</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>27909.086410</v>
+        <v>27909.08641</v>
       </c>
       <c r="B17" s="1">
-        <v>7.752524</v>
+        <v>7.7525240000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>904.905000</v>
+        <v>904.90499999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.160000</v>
+        <v>-197.16</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>27919.503884</v>
+        <v>27919.503884000002</v>
       </c>
       <c r="G17" s="1">
-        <v>7.755418</v>
+        <v>7.7554179999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>922.368000</v>
+        <v>922.36800000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.513000</v>
+        <v>-167.51300000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>27930.066687</v>
+        <v>27930.066686999999</v>
       </c>
       <c r="L17" s="1">
-        <v>7.758352</v>
+        <v>7.7583520000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>944.293000</v>
+        <v>944.29300000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.713000</v>
+        <v>-119.71299999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>27940.602704</v>
+        <v>27940.602704000001</v>
       </c>
       <c r="Q17" s="1">
         <v>7.761279</v>
       </c>
       <c r="R17" s="1">
-        <v>950.983000</v>
+        <v>950.98299999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.294000</v>
+        <v>-104.294</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>27950.415594</v>
+        <v>27950.415593999998</v>
       </c>
       <c r="V17" s="1">
-        <v>7.764004</v>
+        <v>7.7640039999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>957.526000</v>
+        <v>957.52599999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.341700</v>
+        <v>-90.341700000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>27960.663895</v>
+        <v>27960.663895000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.766851</v>
+        <v>7.7668509999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.694000</v>
+        <v>964.69399999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.526700</v>
+        <v>-80.526700000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>27970.846761</v>
+        <v>27970.846761000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.769680</v>
+        <v>7.7696800000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.586000</v>
+        <v>969.58600000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.924700</v>
+        <v>-79.924700000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>27981.365450</v>
+        <v>27981.365450000001</v>
       </c>
       <c r="AK17" s="1">
         <v>7.772602</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.376000</v>
+        <v>977.37599999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.499700</v>
+        <v>-87.499700000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>27992.185659</v>
+        <v>27992.185658999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.775607</v>
+        <v>7.7756069999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.437000</v>
+        <v>986.43700000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.282000</v>
+        <v>-102.282</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>28003.312397</v>
+        <v>28003.312397000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.778698</v>
+        <v>7.7786980000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.636000</v>
+        <v>997.63599999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.728000</v>
+        <v>-123.72799999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>28014.282911</v>
+        <v>28014.282910999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.781745</v>
+        <v>7.7817449999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.090000</v>
+        <v>1007.09</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.442000</v>
+        <v>-142.44200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>28025.283185</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.784801</v>
+        <v>7.7848009999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.495000</v>
+        <v>-227.495</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>28036.487811</v>
+        <v>28036.487810999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.787913</v>
+        <v>7.7879129999999996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1131.050000</v>
+        <v>1131.05</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.270000</v>
+        <v>-364.27</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>28048.002434</v>
+        <v>28048.002434000002</v>
       </c>
       <c r="BO17" s="1">
         <v>7.791112</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.435000</v>
+        <v>-575.43499999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>28058.622313</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.794062</v>
+        <v>7.7940620000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.340000</v>
+        <v>1410.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-800.708000</v>
+        <v>-800.70799999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>28070.222213</v>
+        <v>28070.222213000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.797284</v>
+        <v>7.7972840000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.010000</v>
+        <v>1573.01</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1035.240000</v>
+        <v>-1035.24</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>28082.631125</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.800731</v>
+        <v>7.8007309999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1982.640000</v>
+        <v>1982.64</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1584.570000</v>
+        <v>-1584.57</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>27909.507017</v>
       </c>
       <c r="B18" s="1">
-        <v>7.752641</v>
+        <v>7.7526409999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>904.816000</v>
+        <v>904.81600000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.017000</v>
+        <v>-197.017</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>27919.924507</v>
       </c>
       <c r="G18" s="1">
-        <v>7.755535</v>
+        <v>7.7555350000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>921.822000</v>
+        <v>921.822</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.133000</v>
+        <v>-167.13300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>27930.345438</v>
       </c>
       <c r="L18" s="1">
-        <v>7.758429</v>
+        <v>7.7584289999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>944.355000</v>
+        <v>944.35500000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.631000</v>
+        <v>-119.631</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>27940.879472</v>
+        <v>27940.879472000001</v>
       </c>
       <c r="Q18" s="1">
         <v>7.761355</v>
       </c>
       <c r="R18" s="1">
-        <v>951.008000</v>
+        <v>951.00800000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.306000</v>
+        <v>-104.306</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>27950.762291</v>
+        <v>27950.762290999999</v>
       </c>
       <c r="V18" s="1">
-        <v>7.764101</v>
+        <v>7.7641010000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>957.511000</v>
+        <v>957.51099999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.396200</v>
+        <v>-90.396199999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>27961.013077</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.766948</v>
+        <v>7.7669480000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.581000</v>
+        <v>964.58100000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.612700</v>
+        <v>-80.612700000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>27971.189496</v>
+        <v>27971.189495999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.769775</v>
+        <v>7.7697750000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.580000</v>
+        <v>969.58</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.965300</v>
+        <v>-79.965299999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>27982.061307</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.772795</v>
+        <v>7.7727950000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.391000</v>
+        <v>977.39099999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.518400</v>
+        <v>-87.5184</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>27992.575532</v>
+        <v>27992.575531999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.775715</v>
+        <v>7.7757149999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.440000</v>
+        <v>986.44</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.289000</v>
+        <v>-102.289</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>28003.705725</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.778807</v>
+        <v>7.7788069999999996</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.629000</v>
+        <v>997.62900000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.744000</v>
+        <v>-123.744</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>28014.642510</v>
+        <v>28014.642510000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.781845</v>
+        <v>7.7818449999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.090000</v>
+        <v>1007.09</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.448000</v>
+        <v>-142.44800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>28025.958239</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.784988</v>
+        <v>7.7849880000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.477000</v>
+        <v>-227.477</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>28037.180226</v>
@@ -4773,165 +5189,165 @@
         <v>7.788106</v>
       </c>
       <c r="BK18" s="1">
-        <v>1131.050000</v>
+        <v>1131.05</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.299000</v>
+        <v>-364.29899999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>28048.509347</v>
+        <v>28048.509346999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.791253</v>
+        <v>7.7912530000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.387000</v>
+        <v>-575.38699999999994</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>28059.060244</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.794183</v>
+        <v>7.7941830000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.350000</v>
+        <v>1410.35</v>
       </c>
       <c r="BV18" s="1">
-        <v>-800.628000</v>
+        <v>-800.62800000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>28070.646294</v>
+        <v>28070.646293999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.797402</v>
+        <v>7.7974019999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.110000</v>
+        <v>1573.11</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1035.270000</v>
+        <v>-1035.27</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>28083.146968</v>
+        <v>28083.146968000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.800874</v>
+        <v>7.8008740000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1983.320000</v>
+        <v>1983.32</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1583.420000</v>
+        <v>-1583.42</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>27909.787291</v>
+        <v>27909.787291000001</v>
       </c>
       <c r="B19" s="1">
-        <v>7.752719</v>
+        <v>7.7527189999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>904.944000</v>
+        <v>904.94399999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.142000</v>
+        <v>-197.142</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>27920.196332</v>
       </c>
       <c r="G19" s="1">
-        <v>7.755610</v>
+        <v>7.7556099999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>922.182000</v>
+        <v>922.18200000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.067000</v>
+        <v>-167.06700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>27930.685236</v>
+        <v>27930.685236000001</v>
       </c>
       <c r="L19" s="1">
-        <v>7.758524</v>
+        <v>7.7585240000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>944.457000</v>
+        <v>944.45699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.818000</v>
+        <v>-119.818</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>27941.243040</v>
+        <v>27941.243040000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.761456</v>
+        <v>7.7614559999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>950.996000</v>
+        <v>950.99599999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.317000</v>
+        <v>-104.31699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>27951.105986</v>
+        <v>27951.105985999999</v>
       </c>
       <c r="V19" s="1">
-        <v>7.764196</v>
+        <v>7.7641960000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>957.520000</v>
+        <v>957.52</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.454400</v>
+        <v>-90.454400000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>27961.708964</v>
+        <v>27961.708964000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.767141</v>
+        <v>7.7671409999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.692000</v>
+        <v>964.69200000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.578200</v>
+        <v>-80.578199999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>27971.874999</v>
@@ -4940,482 +5356,482 @@
         <v>7.769965</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.590000</v>
+        <v>969.59</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.935400</v>
+        <v>-79.935400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>27982.409497</v>
+        <v>27982.409497000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.772892</v>
+        <v>7.7728919999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.398000</v>
+        <v>977.39800000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.496500</v>
+        <v>-87.496499999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>27992.936587</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.775816</v>
+        <v>7.7758159999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.445000</v>
+        <v>986.44500000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.277000</v>
+        <v>-102.277</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>28004.066812</v>
+        <v>28004.066812000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.778907</v>
+        <v>7.7789070000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.657000</v>
+        <v>997.65700000000004</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.739000</v>
+        <v>-123.739</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>28015.307678</v>
+        <v>28015.307678000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.782030</v>
+        <v>7.7820299999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.080000</v>
+        <v>1007.08</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.468000</v>
+        <v>-142.46799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>28026.363471</v>
+        <v>28026.363471000001</v>
       </c>
       <c r="BE19" s="1">
         <v>7.785101</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.489000</v>
+        <v>-227.489</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>28037.623648</v>
+        <v>28037.623648000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.788229</v>
+        <v>7.7882290000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1131.040000</v>
+        <v>1131.04</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.283000</v>
+        <v>-364.28300000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>28048.924529</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.791368</v>
+        <v>7.7913680000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.441000</v>
+        <v>-575.44100000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>28059.490308</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.794303</v>
+        <v>7.7943030000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.380000</v>
+        <v>1410.38</v>
       </c>
       <c r="BV19" s="1">
-        <v>-800.520000</v>
+        <v>-800.52</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>28071.064420</v>
+        <v>28071.064419999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.797518</v>
+        <v>7.7975180000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1572.920000</v>
+        <v>1572.92</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1035.320000</v>
+        <v>-1035.32</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>28083.667763</v>
+        <v>28083.667763000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.801019</v>
+        <v>7.8010190000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1982.250000</v>
+        <v>1982.25</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1582.740000</v>
+        <v>-1582.74</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>27910.128505</v>
+        <v>27910.128505000001</v>
       </c>
       <c r="B20" s="1">
-        <v>7.752813</v>
+        <v>7.7528129999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>905.143000</v>
+        <v>905.14300000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.133000</v>
+        <v>-197.13300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>27920.538539</v>
+        <v>27920.538539000001</v>
       </c>
       <c r="G20" s="1">
-        <v>7.755705</v>
+        <v>7.7557049999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>922.349000</v>
+        <v>922.34900000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.821000</v>
+        <v>-166.821</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>27931.032397</v>
+        <v>27931.032396999999</v>
       </c>
       <c r="L20" s="1">
-        <v>7.758620</v>
+        <v>7.7586199999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>944.505000</v>
+        <v>944.505</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.802000</v>
+        <v>-119.80200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>27941.828318</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.761619</v>
+        <v>7.7616189999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>950.970000</v>
+        <v>950.97</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.345000</v>
+        <v>-104.345</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>27951.790465</v>
+        <v>27951.790464999998</v>
       </c>
       <c r="V20" s="1">
         <v>7.764386</v>
       </c>
       <c r="W20" s="1">
-        <v>957.545000</v>
+        <v>957.54499999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.316700</v>
+        <v>-90.316699999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>27962.058149</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.767238</v>
+        <v>7.7672379999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.679000</v>
+        <v>964.67899999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.449400</v>
+        <v>-80.449399999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>27972.217733</v>
+        <v>27972.217733000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.770060</v>
+        <v>7.77006</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.593000</v>
+        <v>969.59299999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.942000</v>
+        <v>-79.941999999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>27982.757193</v>
+        <v>27982.757193000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.772988</v>
+        <v>7.7729879999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.398000</v>
+        <v>977.39800000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.514000</v>
+        <v>-87.513999999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>27993.605693</v>
+        <v>27993.605693000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.776002</v>
+        <v>7.7760020000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.453000</v>
+        <v>986.45299999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.282000</v>
+        <v>-102.282</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>28004.738397</v>
+        <v>28004.738397000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.779094</v>
+        <v>7.7790939999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.627000</v>
+        <v>997.62699999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.730000</v>
+        <v>-123.73</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>28015.751070</v>
+        <v>28015.751069999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.782153</v>
+        <v>7.7821530000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.454000</v>
+        <v>-142.45400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>28026.750350</v>
+        <v>28026.750349999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.785208</v>
+        <v>7.7852079999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.489000</v>
+        <v>-227.489</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>28037.998127</v>
+        <v>28037.998126999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.788333</v>
+        <v>7.7883329999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1131.020000</v>
+        <v>1131.02</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.259000</v>
+        <v>-364.25900000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>28049.322288</v>
+        <v>28049.322287999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.791478</v>
+        <v>7.7914779999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.710000</v>
+        <v>1262.71</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.367000</v>
+        <v>-575.36699999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>28059.913363</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.794420</v>
+        <v>7.7944199999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.360000</v>
+        <v>1410.36</v>
       </c>
       <c r="BV20" s="1">
-        <v>-800.496000</v>
+        <v>-800.49599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>28071.506885</v>
+        <v>28071.506884999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.797641</v>
+        <v>7.7976409999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1572.890000</v>
+        <v>1572.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1035.200000</v>
+        <v>-1035.2</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>28084.184594</v>
+        <v>28084.184593999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.801162</v>
+        <v>7.8011619999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>1982.770000</v>
+        <v>1982.77</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1582.500000</v>
+        <v>-1582.5</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>27910.470744</v>
+        <v>27910.470743999998</v>
       </c>
       <c r="B21" s="1">
-        <v>7.752909</v>
+        <v>7.7529089999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>904.735000</v>
+        <v>904.73500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.100000</v>
+        <v>-197.1</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>27920.883258</v>
+        <v>27920.883258000002</v>
       </c>
       <c r="G21" s="1">
-        <v>7.755801</v>
+        <v>7.7558009999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>921.989000</v>
+        <v>921.98900000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.385000</v>
+        <v>-167.38499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>27931.725835</v>
+        <v>27931.725835000001</v>
       </c>
       <c r="L21" s="1">
         <v>7.758813</v>
       </c>
       <c r="M21" s="1">
-        <v>944.264000</v>
+        <v>944.26400000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.690000</v>
+        <v>-119.69</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>27941.943520</v>
+        <v>27941.943520000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.761651</v>
+        <v>7.7616509999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>950.952000</v>
+        <v>950.952</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.340000</v>
+        <v>-104.34</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>27952.132736</v>
@@ -5424,163 +5840,163 @@
         <v>7.764481</v>
       </c>
       <c r="W21" s="1">
-        <v>957.471000</v>
+        <v>957.471</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.321800</v>
+        <v>-90.321799999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>27962.408324</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.767336</v>
+        <v>7.7673360000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.684000</v>
+        <v>964.68399999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.497700</v>
+        <v>-80.497699999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>27972.560476</v>
+        <v>27972.560475999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.770156</v>
+        <v>7.7701560000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.564000</v>
+        <v>969.56399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.942600</v>
+        <v>-79.942599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>27983.410952</v>
+        <v>27983.410951999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.773170</v>
+        <v>7.7731700000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.393000</v>
+        <v>977.39300000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.480600</v>
+        <v>-87.480599999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>27994.043194</v>
+        <v>27994.043194000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.776123</v>
+        <v>7.7761230000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.428000</v>
+        <v>986.428</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.286000</v>
+        <v>-102.286</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>28005.194746</v>
+        <v>28005.194746000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.779221</v>
+        <v>7.7792209999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.630000</v>
+        <v>997.63</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.712000</v>
+        <v>-123.712</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>28016.109710</v>
+        <v>28016.109710000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.782253</v>
+        <v>7.7822529999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.090000</v>
+        <v>1007.09</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.460000</v>
+        <v>-142.46</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>28027.109486</v>
+        <v>28027.109486000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.785308</v>
+        <v>7.7853079999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.496000</v>
+        <v>-227.49600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>28038.375583</v>
+        <v>28038.375583000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.788438</v>
+        <v>7.7884380000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1131.060000</v>
+        <v>1131.06</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.283000</v>
+        <v>-364.28300000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>28049.743888</v>
+        <v>28049.743888000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.791596</v>
+        <v>7.7915960000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.391000</v>
+        <v>-575.39099999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>28060.329010</v>
+        <v>28060.329010000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.794536</v>
+        <v>7.7945359999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.420000</v>
+        <v>1410.42</v>
       </c>
       <c r="BV21" s="1">
-        <v>-800.433000</v>
+        <v>-800.43299999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>28071.928452</v>
@@ -5589,574 +6005,574 @@
         <v>7.797758</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1572.990000</v>
+        <v>1572.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>28084.736673</v>
+        <v>28084.736672999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.801316</v>
+        <v>7.8013159999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1983.130000</v>
+        <v>1983.13</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1583.750000</v>
+        <v>-1583.75</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>27911.143319</v>
+        <v>27911.143318999999</v>
       </c>
       <c r="B22" s="1">
-        <v>7.753095</v>
+        <v>7.7530950000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>904.765000</v>
+        <v>904.76499999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.234000</v>
+        <v>-197.23400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>27921.575177</v>
+        <v>27921.575176999999</v>
       </c>
       <c r="G22" s="1">
-        <v>7.755993</v>
+        <v>7.7559930000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>921.798000</v>
+        <v>921.798</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.151000</v>
+        <v>-167.15100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>27932.069067</v>
       </c>
       <c r="L22" s="1">
-        <v>7.758908</v>
+        <v>7.7589079999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>944.410000</v>
+        <v>944.41</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.835000</v>
+        <v>-119.83499999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>27942.289630</v>
+        <v>27942.289629999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.761747</v>
+        <v>7.7617469999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>950.956000</v>
+        <v>950.95600000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.299000</v>
+        <v>-104.29900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>27952.477921</v>
+        <v>27952.477921000002</v>
       </c>
       <c r="V22" s="1">
-        <v>7.764577</v>
+        <v>7.7645770000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>957.374000</v>
+        <v>957.37400000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.352800</v>
+        <v>-90.352800000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>27963.070018</v>
+        <v>27963.070017999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.767519</v>
+        <v>7.7675190000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.701000</v>
+        <v>964.70100000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.565200</v>
+        <v>-80.565200000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>27973.233013</v>
+        <v>27973.233013000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.770343</v>
+        <v>7.7703430000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.583000</v>
+        <v>969.58299999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.962100</v>
+        <v>-79.962100000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>27983.804743</v>
+        <v>27983.804743000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.773279</v>
+        <v>7.7732789999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.393000</v>
+        <v>977.39300000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.478300</v>
+        <v>-87.478300000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>27994.403753</v>
+        <v>27994.403752999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.776223</v>
+        <v>7.7762229999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.440000</v>
+        <v>986.44</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>28005.560763</v>
+        <v>28005.560763000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.779322</v>
+        <v>7.7793219999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.644000</v>
+        <v>997.64400000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.733000</v>
+        <v>-123.733</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>28016.470765</v>
+        <v>28016.470764999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.782353</v>
+        <v>7.7823529999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.090000</v>
+        <v>1007.09</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.438000</v>
+        <v>-142.43799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>28027.539485</v>
+        <v>28027.539485000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.785428</v>
+        <v>7.7854279999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.495000</v>
+        <v>-227.495</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>28038.796222</v>
+        <v>28038.796222000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.788555</v>
+        <v>7.7885549999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1131.030000</v>
+        <v>1131.03</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.297000</v>
+        <v>-364.29700000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>28050.150443</v>
+        <v>28050.150442999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.791708</v>
+        <v>7.7917079999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.367000</v>
+        <v>-575.36699999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>28060.758547</v>
+        <v>28060.758547000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.794655</v>
+        <v>7.7946549999999997</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.350000</v>
+        <v>1410.35</v>
       </c>
       <c r="BV22" s="1">
-        <v>-800.329000</v>
+        <v>-800.32899999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>28072.356003</v>
+        <v>28072.356003000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.797877</v>
+        <v>7.7978769999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1572.970000</v>
+        <v>1572.97</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1035.200000</v>
+        <v>-1035.2</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>28085.266865</v>
+        <v>28085.266865000001</v>
       </c>
       <c r="CD22" s="1">
         <v>7.801463</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.060000</v>
+        <v>1982.06</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1583.030000</v>
+        <v>-1583.03</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>27911.498455</v>
+        <v>27911.498455000001</v>
       </c>
       <c r="B23" s="1">
-        <v>7.753194</v>
+        <v>7.7531939999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>904.732000</v>
+        <v>904.73199999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.077000</v>
+        <v>-197.077</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>27921.915930</v>
+        <v>27921.915929999999</v>
       </c>
       <c r="G23" s="1">
-        <v>7.756088</v>
+        <v>7.7560880000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>921.730000</v>
+        <v>921.73</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.090000</v>
+        <v>-167.09</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>27932.414747</v>
+        <v>27932.414746999999</v>
       </c>
       <c r="L23" s="1">
         <v>7.759004</v>
       </c>
       <c r="M23" s="1">
-        <v>944.448000</v>
+        <v>944.44799999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.613000</v>
+        <v>-119.613</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>27942.950303</v>
+        <v>27942.950303000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.761931</v>
+        <v>7.7619309999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>950.979000</v>
+        <v>950.97900000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.268000</v>
+        <v>-104.268</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>27953.126688</v>
       </c>
       <c r="V23" s="1">
-        <v>7.764757</v>
+        <v>7.7647570000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>957.370000</v>
+        <v>957.37</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.253700</v>
+        <v>-90.253699999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>27963.452898</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.767626</v>
+        <v>7.7676259999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.650000</v>
+        <v>964.65</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.558900</v>
+        <v>-80.558899999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>27973.596084</v>
+        <v>27973.596084000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.770443</v>
+        <v>7.7704430000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.539000</v>
+        <v>969.53899999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.958000</v>
+        <v>-79.957999999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>27984.149462</v>
+        <v>27984.149462000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.773375</v>
+        <v>7.7733749999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.403000</v>
+        <v>977.40300000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.490400</v>
+        <v>-87.490399999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>27994.763354</v>
+        <v>27994.763353999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.776323</v>
+        <v>7.7763229999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.437000</v>
+        <v>986.43700000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>28005.925819</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.779424</v>
+        <v>7.7794239999999997</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.643000</v>
+        <v>997.64300000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.727000</v>
+        <v>-123.727</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>28016.895339</v>
+        <v>28016.895338999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.782471</v>
+        <v>7.7824710000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.440000</v>
+        <v>-142.44</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>28027.833646</v>
+        <v>28027.833645999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.785509</v>
+        <v>7.7855090000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.485000</v>
+        <v>-227.48500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>28039.145901</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.788652</v>
+        <v>7.7886519999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1131.040000</v>
+        <v>1131.04</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.290000</v>
+        <v>-364.29</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>28050.563775</v>
+        <v>28050.563774999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.791823</v>
+        <v>7.7918229999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.690000</v>
+        <v>1262.69</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.427000</v>
+        <v>-575.42700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>28061.170752</v>
+        <v>28061.170752000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.794770</v>
+        <v>7.7947699999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="BV23" s="1">
-        <v>-800.284000</v>
+        <v>-800.28399999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>28072.803431</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.798001</v>
+        <v>7.7980010000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1572.860000</v>
+        <v>1572.86</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1035.300000</v>
+        <v>-1035.3</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>28085.783696</v>
+        <v>28085.783695999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.801607</v>
+        <v>7.8016069999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>1981.480000</v>
+        <v>1981.48</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1584.200000</v>
+        <v>-1584.2</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>27911.835767</v>
       </c>
       <c r="B24" s="1">
-        <v>7.753288</v>
+        <v>7.7532880000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>905.042000</v>
+        <v>905.04200000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.046000</v>
+        <v>-197.04599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>27922.264120</v>
+        <v>27922.26412</v>
       </c>
       <c r="G24" s="1">
-        <v>7.756184</v>
+        <v>7.7561840000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>921.589000</v>
+        <v>921.58900000000006</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.207000</v>
+        <v>-167.20699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>27933.075418</v>
@@ -6165,739 +6581,740 @@
         <v>7.759188</v>
       </c>
       <c r="M24" s="1">
-        <v>944.565000</v>
+        <v>944.56500000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.700000</v>
+        <v>-119.7</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>27943.334669</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.762037</v>
+        <v>7.7620370000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>951.018000</v>
+        <v>951.01800000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.309000</v>
+        <v>-104.309</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>27953.511119</v>
+        <v>27953.511118999999</v>
       </c>
       <c r="V24" s="1">
-        <v>7.764864</v>
+        <v>7.7648640000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>957.450000</v>
+        <v>957.45</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.362600</v>
+        <v>-90.3626</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>27963.802578</v>
+        <v>27963.802577999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.767723</v>
+        <v>7.7677230000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.682000</v>
+        <v>964.68200000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.492800</v>
+        <v>-80.492800000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>27973.931876</v>
+        <v>27973.931875999999</v>
       </c>
       <c r="AF24" s="1">
         <v>7.770537</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.603000</v>
+        <v>969.60299999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.929200</v>
+        <v>-79.929199999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>27984.501622</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.773473</v>
+        <v>7.7734730000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.406000</v>
+        <v>977.40599999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.503000</v>
+        <v>-87.503</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>27995.185944</v>
+        <v>27995.185944000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.776441</v>
+        <v>7.7764410000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.436000</v>
+        <v>986.43600000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.296000</v>
+        <v>-102.29600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>28006.363289</v>
+        <v>28006.363289000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.779545</v>
+        <v>7.7795449999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.642000</v>
+        <v>997.64200000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.740000</v>
+        <v>-123.74</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>28017.186890</v>
+        <v>28017.186890000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.782552</v>
+        <v>7.7825519999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.060000</v>
+        <v>1007.06</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.459000</v>
+        <v>-142.459</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>28028.194206</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.785610</v>
+        <v>7.7856100000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.840000</v>
+        <v>1051.8399999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.460000</v>
+        <v>-227.46</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>28039.522830</v>
+        <v>28039.522830000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.788756</v>
+        <v>7.7887560000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1131.050000</v>
+        <v>1131.05</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.253000</v>
+        <v>-364.25299999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>28050.958105</v>
+        <v>28050.958105000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.791933</v>
+        <v>7.7919330000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.416000</v>
+        <v>-575.41600000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>28061.602240</v>
+        <v>28061.60224</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.794890</v>
+        <v>7.7948899999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.410000</v>
+        <v>1410.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-800.183000</v>
+        <v>-800.18299999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>28073.254257</v>
+        <v>28073.254257000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.798126</v>
+        <v>7.7981259999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1572.950000</v>
+        <v>1572.95</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1035.310000</v>
+        <v>-1035.31</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>28086.302512</v>
+        <v>28086.302511999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.801751</v>
+        <v>7.8017510000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>1982.970000</v>
+        <v>1982.97</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1584.660000</v>
+        <v>-1584.66</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>27912.482023</v>
       </c>
       <c r="B25" s="1">
-        <v>7.753467</v>
+        <v>7.7534669999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>904.888000</v>
+        <v>904.88800000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.108000</v>
+        <v>-197.108</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>27922.921815</v>
+        <v>27922.921815000002</v>
       </c>
       <c r="G25" s="1">
         <v>7.756367</v>
       </c>
       <c r="H25" s="1">
-        <v>921.803000</v>
+        <v>921.803</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.354000</v>
+        <v>-167.35400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>27933.454363</v>
+        <v>27933.454363000001</v>
       </c>
       <c r="L25" s="1">
-        <v>7.759293</v>
+        <v>7.7592930000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>944.257000</v>
+        <v>944.25699999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.680000</v>
+        <v>-119.68</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>27943.683852</v>
+        <v>27943.683851999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.762134</v>
+        <v>7.7621339999999996</v>
       </c>
       <c r="R25" s="1">
-        <v>950.988000</v>
+        <v>950.98800000000006</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.354000</v>
+        <v>-104.354</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>27953.864735</v>
+        <v>27953.864734999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.764962</v>
+        <v>7.7649619999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>957.435000</v>
+        <v>957.43499999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.439500</v>
+        <v>-90.439499999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>27964.149281</v>
+        <v>27964.149281000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.767819</v>
+        <v>7.7678190000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.722000</v>
+        <v>964.72199999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.568600</v>
+        <v>-80.568600000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>27974.278618</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.770633</v>
+        <v>7.7706330000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.568000</v>
+        <v>969.56799999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.979200</v>
+        <v>-79.979200000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>27984.920279</v>
+        <v>27984.920279000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.773589</v>
+        <v>7.7735890000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.407000</v>
+        <v>977.40700000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.502400</v>
+        <v>-87.502399999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>27995.484040</v>
+        <v>27995.484039999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.776523</v>
+        <v>7.7765230000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.422000</v>
+        <v>986.42200000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.278000</v>
+        <v>-102.27800000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>28006.655435</v>
+        <v>28006.655435000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.779627</v>
+        <v>7.7796269999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.639000</v>
+        <v>997.63900000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.721000</v>
+        <v>-123.721</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>28017.544106</v>
+        <v>28017.544106000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.782651</v>
+        <v>7.7826510000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.080000</v>
+        <v>1007.08</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.454000</v>
+        <v>-142.45400000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>28028.558764</v>
+        <v>28028.558764000001</v>
       </c>
       <c r="BE25" s="1">
         <v>7.785711</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.840000</v>
+        <v>1051.8399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.494000</v>
+        <v>-227.494</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>28039.904254</v>
+        <v>28039.904254000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>7.788862</v>
       </c>
       <c r="BK25" s="1">
-        <v>1131.060000</v>
+        <v>1131.06</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.260000</v>
+        <v>-364.26</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>28051.381182</v>
+        <v>28051.381182000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.792050</v>
+        <v>7.7920499999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.381000</v>
+        <v>-575.38099999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>28062.028800</v>
+        <v>28062.0288</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.795008</v>
+        <v>7.7950080000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.610000</v>
+        <v>1410.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-800.167000</v>
+        <v>-800.16700000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>28073.657009</v>
+        <v>28073.657008999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.798238</v>
+        <v>7.7982379999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1572.940000</v>
+        <v>1572.94</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1035.170000</v>
+        <v>-1035.17</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>28086.820831</v>
+        <v>28086.820831000001</v>
       </c>
       <c r="CD25" s="1">
         <v>7.801895</v>
       </c>
       <c r="CE25" s="1">
-        <v>1982.560000</v>
+        <v>1982.56</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1584.950000</v>
+        <v>-1584.95</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>27912.863445</v>
+        <v>27912.863444999999</v>
       </c>
       <c r="B26" s="1">
-        <v>7.753573</v>
+        <v>7.7535730000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>904.712000</v>
+        <v>904.71199999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.159000</v>
+        <v>-197.15899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>27923.298313</v>
+        <v>27923.298312999999</v>
       </c>
       <c r="G26" s="1">
-        <v>7.756472</v>
+        <v>7.7564719999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>921.932000</v>
+        <v>921.93200000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.175000</v>
+        <v>-167.17500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>27933.801066</v>
       </c>
       <c r="L26" s="1">
-        <v>7.759389</v>
+        <v>7.7593889999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>944.513000</v>
+        <v>944.51300000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.784000</v>
+        <v>-119.78400000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>27944.033532</v>
+        <v>27944.033532000001</v>
       </c>
       <c r="Q26" s="1">
         <v>7.762232</v>
       </c>
       <c r="R26" s="1">
-        <v>950.989000</v>
+        <v>950.98900000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.296000</v>
+        <v>-104.29600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>27954.201518</v>
+        <v>27954.201518000002</v>
       </c>
       <c r="V26" s="1">
-        <v>7.765056</v>
+        <v>7.7650560000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>957.496000</v>
+        <v>957.49599999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.374900</v>
+        <v>-90.374899999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>27964.579312</v>
+        <v>27964.579312000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.767939</v>
+        <v>7.7679390000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.658000</v>
+        <v>964.65800000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.480300</v>
+        <v>-80.4803</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>27974.965571</v>
+        <v>27974.965571000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.770824</v>
+        <v>7.7708240000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.544000</v>
+        <v>969.54399999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.948300</v>
+        <v>-79.948300000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>27985.208453</v>
+        <v>27985.208452999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.773669</v>
+        <v>7.7736689999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.392000</v>
+        <v>977.39200000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.497100</v>
+        <v>-87.497100000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>27995.844633</v>
+        <v>27995.844633000001</v>
       </c>
       <c r="AP26" s="1">
         <v>7.776624</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.427000</v>
+        <v>986.42700000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.304000</v>
+        <v>-102.304</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>28007.056200</v>
+        <v>28007.056199999999</v>
       </c>
       <c r="AU26" s="1">
         <v>7.779738</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.611000</v>
+        <v>997.61099999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.746000</v>
+        <v>-123.746</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>28017.904730</v>
+        <v>28017.904729999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.782751</v>
+        <v>7.7827510000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.445000</v>
+        <v>-142.44499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>28029.274986</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.785910</v>
+        <v>7.7859100000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.840000</v>
+        <v>1051.8399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.474000</v>
+        <v>-227.47399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>28040.646268</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.789068</v>
+        <v>7.7890680000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1131.020000</v>
+        <v>1131.02</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.252000</v>
+        <v>-364.25200000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>28051.774013</v>
+        <v>28051.774012999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.792159</v>
+        <v>7.7921589999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.730000</v>
+        <v>1262.73</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.394000</v>
+        <v>-575.39400000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>28062.441967</v>
+        <v>28062.441966999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.795123</v>
+        <v>7.7951230000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.670000</v>
+        <v>1410.67</v>
       </c>
       <c r="BV26" s="1">
-        <v>-800.056000</v>
+        <v>-800.05600000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>28074.404975</v>
+        <v>28074.404975000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.798446</v>
+        <v>7.7984460000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1572.820000</v>
+        <v>1572.82</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1035.180000</v>
+        <v>-1035.18</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>28087.680399</v>
+        <v>28087.680399000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.802133</v>
+        <v>7.8021330000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>1981.420000</v>
+        <v>1981.42</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1583.840000</v>
+        <v>-1583.84</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>